--- a/biology/Médecine/1683_en_santé_et_médecine/1683_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1683_en_santé_et_médecine/1683_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1683_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1683_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1683 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1683_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1683_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guy-Crescent Fagon (1638-1718) fait venir Joseph Pitton de Tournefort (1656-1708) à Paris pour lui confier sa chaire de botanique au Jardin des Plantes établi par Louis XIII pour l'instruction des jeunes étudiants en médecine.
 Pierre Chirac (1657-1732) est reçu docteur à la Faculté de médecine de Montpellier.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1683_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1683_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ole Borch (1626-1690) publie Dissertationes Academicae De Poetis (lire en ligne).
 Pierre Dionis (1643-1718) fait éditer Histoire anatomique d’une matrice extraordinaire (lire en ligne).</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1683_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1683_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1683_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1683_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,10 +617,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 janvier : Guillaume Lamy (né en 1644), médecin français[1].
-9 mars : Michael Ettmüller (né en 1644), médecin allemand[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15 janvier : Guillaume Lamy (né en 1644), médecin français.
+9 mars : Michael Ettmüller (né en 1644), médecin allemand.
 10 novembre : Robert Morison (né en 1620), médecin et botaniste écossais.</t>
         </is>
       </c>
